--- a/shenzi-wordpress-plugins/database_schema_analysis 2.xlsx
+++ b/shenzi-wordpress-plugins/database_schema_analysis 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/shenzi-wordpress-plugins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA2DE00F-7AE4-6146-B236-2F45313487C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4EC7F949-C629-CD4D-8EEE-AC7925E6F335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{2D00B858-3134-4B49-925B-F4873EFE1EBB}"/>
   </bookViews>
@@ -1630,7 +1630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D180" sqref="D180"/>
+      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
